--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3709152.166129023</v>
+        <v>3706775.539181657</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7603803.547710369</v>
+        <v>7603803.54771037</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>259.6580847920589</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>107.7137648189054</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.0165900216656</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>4.996196533654206</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.18609391401973</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>37.05613298184503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.77350972403156</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>189.4755516291273</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934953</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.6638016462584</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829028</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>690.4032258886166</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>332.1375272818661</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251366</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331018</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130042</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868962</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.96558289315</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844859</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159576</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751776</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472123</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.0593816855418</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1527.644337429138</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.525999932976</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>983.8415117270893</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>983.8415117270893</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>755.8519608290719</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.0593816855418</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.2769458819325</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C5" t="n">
-        <v>141.2769458819325</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>141.2769458819325</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>141.2769458819325</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>134.331445132729</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>122.667098897422</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.25053145306</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182946</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>918.016117921866</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460543</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>575.6256845144194</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458913</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505111</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.2185726509455</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>307.2185726509455</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>793.431140047892</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>756.000702692493</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>528.0111517944756</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.2185726509455</v>
+        <v>383.6188956900839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992463</v>
+        <v>884.1849331278574</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052052</v>
+        <v>884.1849331278574</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.448385445301</v>
+        <v>525.919234521107</v>
       </c>
       <c r="E8" t="n">
-        <v>731.660132847057</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574494</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>309.0098818221423</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056585</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,19 +5419,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,13 +6546,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883076197</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>154.0169020165184</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.36925650589399</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.1681785356789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440182</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>671283.0564728597</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>671283.0564728596</v>
+        <v>671283.0564728597</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426732036</v>
-      </c>
       <c r="G4" t="n">
-        <v>8117.312426731959</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426732039</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731966</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731958</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731984</v>
-      </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26470,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065585</v>
+        <v>-562017.8749065589</v>
       </c>
       <c r="C6" t="n">
-        <v>552733.9086693607</v>
+        <v>552733.9086693614</v>
       </c>
       <c r="D6" t="n">
-        <v>552733.9086693615</v>
+        <v>552733.9086693611</v>
       </c>
       <c r="E6" t="n">
-        <v>150063.9858303209</v>
+        <v>150029.2479048854</v>
       </c>
       <c r="F6" t="n">
-        <v>657549.4274548669</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="G6" t="n">
-        <v>657549.4274548671</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="H6" t="n">
-        <v>657549.4274548667</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="I6" t="n">
-        <v>657549.4274548669</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="J6" t="n">
-        <v>489944.2496448842</v>
+        <v>489909.5117194486</v>
       </c>
       <c r="K6" t="n">
-        <v>657549.4274548671</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="L6" t="n">
-        <v>657549.4274548667</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="M6" t="n">
-        <v>524942.1337259402</v>
+        <v>524907.3958005047</v>
       </c>
       <c r="N6" t="n">
-        <v>657549.4274548667</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="O6" t="n">
-        <v>657549.4274548669</v>
+        <v>657514.6895294309</v>
       </c>
       <c r="P6" t="n">
-        <v>657549.4274548669</v>
+        <v>657514.6895294312</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2722852802029</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>113.0349311783065</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>257.2563017493419</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>296.0223560287512</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>166.6458862679176</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>249.466865354746</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.1568603482302</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>111.5430009332781</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.565601406792922e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317924</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>340.6043982600033</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>584.5244463807092</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>397.3005887879345</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
